--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc1r.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Mc1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Mc1r</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7608533333333334</v>
+        <v>0.9519303333333333</v>
       </c>
       <c r="N2">
-        <v>2.28256</v>
+        <v>2.855791</v>
       </c>
       <c r="O2">
-        <v>0.2357054714243672</v>
+        <v>0.2529401125772161</v>
       </c>
       <c r="P2">
-        <v>0.2357054714243672</v>
+        <v>0.2529401125772162</v>
       </c>
       <c r="Q2">
-        <v>0.01819834364444444</v>
+        <v>0.3276610842456666</v>
       </c>
       <c r="R2">
-        <v>0.1637850928</v>
+        <v>2.948949758211</v>
       </c>
       <c r="S2">
-        <v>0.01531457230332375</v>
+        <v>0.1766858073597628</v>
       </c>
       <c r="T2">
-        <v>0.01531457230332375</v>
+        <v>0.1766858073597628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H3">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.83006</v>
       </c>
       <c r="O3">
-        <v>0.4987696136390626</v>
+        <v>0.4278029870374648</v>
       </c>
       <c r="P3">
-        <v>0.4987696136390626</v>
+        <v>0.4278029870374649</v>
       </c>
       <c r="Q3">
-        <v>0.03850899503333333</v>
+        <v>0.5541801541400001</v>
       </c>
       <c r="R3">
-        <v>0.3465809553</v>
+        <v>4.987621387260001</v>
       </c>
       <c r="S3">
-        <v>0.03240672889185471</v>
+        <v>0.298832460322235</v>
       </c>
       <c r="T3">
-        <v>0.03240672889185471</v>
+        <v>0.2988324603222351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H4">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.433405</v>
+        <v>0.9848326666666667</v>
       </c>
       <c r="N4">
-        <v>1.300215</v>
+        <v>2.954498</v>
       </c>
       <c r="O4">
-        <v>0.1342649435406007</v>
+        <v>0.261682685017622</v>
       </c>
       <c r="P4">
-        <v>0.1342649435406007</v>
+        <v>0.2616826850176221</v>
       </c>
       <c r="Q4">
-        <v>0.01036632525833333</v>
+        <v>0.3389862976953333</v>
       </c>
       <c r="R4">
-        <v>0.09329692732499999</v>
+        <v>3.050876679258</v>
       </c>
       <c r="S4">
-        <v>0.008723642150640547</v>
+        <v>0.1827927409508625</v>
       </c>
       <c r="T4">
-        <v>0.008723642150640545</v>
+        <v>0.1827927409508625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H5">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.423705</v>
+        <v>0.2166783333333333</v>
       </c>
       <c r="N5">
-        <v>1.271115</v>
+        <v>0.6500349999999999</v>
       </c>
       <c r="O5">
-        <v>0.1312599713959696</v>
+        <v>0.05757421536769695</v>
       </c>
       <c r="P5">
-        <v>0.1312599713959696</v>
+        <v>0.05757421536769697</v>
       </c>
       <c r="Q5">
-        <v>0.010134317425</v>
+        <v>0.07458219908166665</v>
       </c>
       <c r="R5">
-        <v>0.091208856825</v>
+        <v>0.6712397917349999</v>
       </c>
       <c r="S5">
-        <v>0.008528399066547808</v>
+        <v>0.0402172143504561</v>
       </c>
       <c r="T5">
-        <v>0.008528399066547808</v>
+        <v>0.04021721435045612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H6">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I6">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J6">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7608533333333334</v>
+        <v>0.9519303333333333</v>
       </c>
       <c r="N6">
-        <v>2.28256</v>
+        <v>2.855791</v>
       </c>
       <c r="O6">
-        <v>0.2357054714243672</v>
+        <v>0.2529401125772161</v>
       </c>
       <c r="P6">
-        <v>0.2357054714243672</v>
+        <v>0.2529401125772162</v>
       </c>
       <c r="Q6">
-        <v>0.2618910433066666</v>
+        <v>0.1414124241177778</v>
       </c>
       <c r="R6">
-        <v>2.35701938976</v>
+        <v>1.27271181706</v>
       </c>
       <c r="S6">
-        <v>0.2203908991210434</v>
+        <v>0.07625430521745334</v>
       </c>
       <c r="T6">
-        <v>0.2203908991210434</v>
+        <v>0.07625430521745336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H7">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I7">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J7">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.83006</v>
       </c>
       <c r="O7">
-        <v>0.4987696136390626</v>
+        <v>0.4278029870374648</v>
       </c>
       <c r="P7">
-        <v>0.4987696136390626</v>
+        <v>0.4278029870374649</v>
       </c>
       <c r="Q7">
-        <v>0.5541801541399998</v>
+        <v>0.2391738377333334</v>
       </c>
       <c r="R7">
-        <v>4.987621387259998</v>
+        <v>2.1525645396</v>
       </c>
       <c r="S7">
-        <v>0.4663628847472079</v>
+        <v>0.1289705267152298</v>
       </c>
       <c r="T7">
-        <v>0.4663628847472078</v>
+        <v>0.1289705267152298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H8">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I8">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J8">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433405</v>
+        <v>0.9848326666666667</v>
       </c>
       <c r="N8">
-        <v>1.300215</v>
+        <v>2.954498</v>
       </c>
       <c r="O8">
-        <v>0.1342649435406007</v>
+        <v>0.261682685017622</v>
       </c>
       <c r="P8">
-        <v>0.1342649435406007</v>
+        <v>0.2616826850176221</v>
       </c>
       <c r="Q8">
-        <v>0.149181034835</v>
+        <v>0.1463001754088889</v>
       </c>
       <c r="R8">
-        <v>1.342629313515</v>
+        <v>1.31670157868</v>
       </c>
       <c r="S8">
-        <v>0.1255413013899602</v>
+        <v>0.0788899440667596</v>
       </c>
       <c r="T8">
-        <v>0.1255413013899601</v>
+        <v>0.07888994406675962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H9">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I9">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J9">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423705</v>
+        <v>0.2166783333333333</v>
       </c>
       <c r="N9">
-        <v>1.271115</v>
+        <v>0.6500349999999999</v>
       </c>
       <c r="O9">
-        <v>0.1312599713959696</v>
+        <v>0.05757421536769695</v>
       </c>
       <c r="P9">
-        <v>0.1312599713959696</v>
+        <v>0.05757421536769697</v>
       </c>
       <c r="Q9">
-        <v>0.145842226935</v>
+        <v>0.03218828867777777</v>
       </c>
       <c r="R9">
-        <v>1.312580042415</v>
+        <v>0.2896945981</v>
       </c>
       <c r="S9">
-        <v>0.1227315723294218</v>
+        <v>0.01735700101724085</v>
       </c>
       <c r="T9">
-        <v>0.1227315723294218</v>
+        <v>0.01735700101724086</v>
       </c>
     </row>
   </sheetData>
